--- a/Chapter3 - Artin/src/ReflectionLog/Reflection on Code.xlsx
+++ b/Chapter3 - Artin/src/ReflectionLog/Reflection on Code.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="10755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="10755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>How has your program changed from planning to coding to now? Please explain?</t>
   </si>
@@ -24,6 +24,21 @@
   </si>
   <si>
     <t>Assignment Name: Chapter 3</t>
+  </si>
+  <si>
+    <t>Turn what the user said into a varuable and divide it by 25 to get the amount of quarters we need</t>
+  </si>
+  <si>
+    <t>So what this line does is it takes the amount that the user entered and it takes away the amount of quarters from the whole. Then it divides the remainder by 10 to give us the amount of dimes.</t>
+  </si>
+  <si>
+    <t>The same as last step but this time we added the amounts of dime too and also we divided the answer by 5 to get the amount of nickles</t>
+  </si>
+  <si>
+    <t>Also same as last step but this time the amount of nickles were added too</t>
+  </si>
+  <si>
+    <t>This is just basically to get the user to enter an amount less than 1 dollars in cents, like 93 cents</t>
   </si>
 </sst>
 </file>
@@ -83,6 +98,239 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="647700"/>
+          <a:ext cx="5943600" cy="244142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342543</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1295400"/>
+          <a:ext cx="2857143" cy="704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>580533</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2266950"/>
+          <a:ext cx="3933333" cy="323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>132705</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2933700"/>
+          <a:ext cx="5161905" cy="257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>484981</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3476625"/>
+          <a:ext cx="6352381" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>46782</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="647700"/>
+          <a:ext cx="6752381" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -289,7 +537,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -352,8 +600,31 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
@@ -361,5 +632,6 @@
     <mergeCell ref="A4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>